--- a/Detroit_Pistons_2025-26_stats.xlsx
+++ b/Detroit_Pistons_2025-26_stats.xlsx
@@ -9,8 +9,12 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Points" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assists" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Points" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rebounds" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3PM" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Points" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Rebounds" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg 3PM" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2236,7 +2240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2247,163 +2251,886 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Player</t>
+          <t>Game Time (PST)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Avg Points</t>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jalen Duren</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Cade Cunningham</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Isaac Jones</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Ronald Holland II</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Paul Reed</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Caris LeVert</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Ausar Thompson</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Tobias Harris</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Chaz Lanier</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Daniss Jenkins</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Isaiah Stewart</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Javonte Green</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Bobi Klintman</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Tolu Smith</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Duncan Robinson</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cade Cunningham</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>27.45454545454545</v>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>9</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>10</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jalen Duren</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>19.36363636363636</v>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ausar Thompson</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>13.9</v>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>13.5</v>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Duncan Robinson</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>11.36363636363636</v>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tolu Smith</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>11</v>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>9</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Isaiah Stewart</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10.66666666666667</v>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ronald Holland II</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>9.272727272727273</v>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>13</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>11</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Caris LeVert</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>7.857142857142857</v>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>10</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Daniss Jenkins</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6.833333333333333</v>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>14</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Javonte Green</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5.727272727272728</v>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>22</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>6</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Paul Reed</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4.444444444444445</v>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3</v>
+      </c>
+      <c r="O13" t="n">
+        <v>5</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chaz Lanier</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2.714285714285714</v>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>16</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bobi Klintman</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Isaac Jones</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" t="n">
+        <v>12</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>9</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>8</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>11</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2412,6 +3139,910 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Game Time (PST)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jalen Duren</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Cade Cunningham</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Isaac Jones</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Ronald Holland II</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Paul Reed</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Caris LeVert</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Ausar Thompson</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Tobias Harris</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Chaz Lanier</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Daniss Jenkins</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Isaiah Stewart</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Javonte Green</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Bobi Klintman</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Tolu Smith</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Duncan Robinson</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2433,7 +4064,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Avg Assists</t>
+          <t>Avg Points</t>
         </is>
       </c>
     </row>
@@ -2444,12 +4075,193 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.909090909090908</v>
+        <v>27.45454545454545</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Jalen Duren</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>19.36363636363636</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Ausar Thompson</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Tobias Harris</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Duncan Robinson</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11.36363636363636</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Tolu Smith</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Isaiah Stewart</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10.66666666666667</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Ronald Holland II</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9.272727272727273</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Caris LeVert</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7.857142857142857</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Daniss Jenkins</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6.833333333333333</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Javonte Green</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5.727272727272728</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Paul Reed</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4.444444444444445</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chaz Lanier</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2.714285714285714</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Bobi Klintman</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Isaac Jones</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Assists</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cade Cunningham</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9.909090909090908</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>Ausar Thompson</t>
         </is>
       </c>
@@ -2575,6 +4387,368 @@
       </c>
       <c r="B15" t="n">
         <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Tolu Smith</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Rebounds</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Jalen Duren</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Isaiah Stewart</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Ausar Thompson</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Tobias Harris</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Cade Cunningham</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5.363636363636363</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Tolu Smith</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Paul Reed</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3.555555555555555</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Ronald Holland II</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3.545454545454545</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Javonte Green</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.363636363636364</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Duncan Robinson</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.636363636363636</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Bobi Klintman</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Daniss Jenkins</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Caris LeVert</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.285714285714286</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chaz Lanier</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Isaac Jones</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg 3PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Duncan Robinson</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.636363636363636</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cade Cunningham</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.909090909090909</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tobias Harris</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Caris LeVert</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.285714285714286</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Isaiah Stewart</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.222222222222222</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Ronald Holland II</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.090909090909091</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Daniss Jenkins</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Javonte Green</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chaz Lanier</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ausar Thompson</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Bobi Klintman</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Paul Reed</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Jalen Duren</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Isaac Jones</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">

--- a/Detroit_Pistons_2025-26_stats.xlsx
+++ b/Detroit_Pistons_2025-26_stats.xlsx
@@ -15,6 +15,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Rebounds" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg 3PM" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Points" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,45 +484,50 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Wendell Moore Jr.</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Ausar Thompson</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Tobias Harris</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Chaz Lanier</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Daniss Jenkins</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Isaiah Stewart</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Javonte Green</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Bobi Klintman</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Tolu Smith</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Duncan Robinson</t>
         </is>
@@ -557,23 +563,23 @@
         <v>8</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>11</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>10</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>20</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
@@ -581,6 +587,9 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -614,30 +623,33 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>19</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>9</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>3</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>5</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>4</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>7</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>17</v>
       </c>
     </row>
@@ -697,6 +709,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -728,30 +743,33 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>21</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>18</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>9</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>7</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -811,6 +829,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -842,30 +863,33 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>6</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>10</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>6</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>9</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>4</v>
       </c>
-      <c r="N7" t="n">
-        <v>2</v>
-      </c>
       <c r="O7" t="n">
         <v>2</v>
       </c>
       <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
         <v>11</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -925,6 +949,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -956,30 +983,33 @@
         <v>4</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>12</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>23</v>
       </c>
-      <c r="K9" t="n">
-        <v>2</v>
-      </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1013,30 +1043,33 @@
         <v>5</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>15</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>11</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>10</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>7</v>
       </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>18</v>
       </c>
     </row>
@@ -1070,11 +1103,11 @@
         <v>4</v>
       </c>
       <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>9</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
@@ -1082,18 +1115,21 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>26</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>3</v>
       </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1127,11 +1163,11 @@
         <v>10</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>18</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
@@ -1139,18 +1175,21 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>10</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>3</v>
       </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1184,30 +1223,33 @@
         <v>10</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>14</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
         <v>3</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>4</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>8</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>4</v>
       </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
       <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1241,11 +1283,11 @@
         <v>14</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>14</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
@@ -1256,15 +1298,18 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>6</v>
       </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
         <v>17</v>
       </c>
     </row>
@@ -1304,25 +1349,88 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>8</v>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
         <v>24</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
       <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>11</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>3</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
       <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9</v>
+      </c>
+      <c r="G16" t="n">
+        <v>28</v>
+      </c>
+      <c r="H16" t="n">
+        <v>17</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6</v>
+      </c>
+      <c r="M16" t="n">
+        <v>18</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>9</v>
+      </c>
+      <c r="P16" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>6</v>
+      </c>
+      <c r="R16" t="n">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1336,7 +1444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1387,45 +1495,50 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Wendell Moore Jr.</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Ausar Thompson</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Tobias Harris</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Chaz Lanier</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Daniss Jenkins</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Isaiah Stewart</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Javonte Green</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Bobi Klintman</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Tolu Smith</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Duncan Robinson</t>
         </is>
@@ -1461,22 +1574,22 @@
         <v>2</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>7</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>4</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1485,6 +1598,9 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1518,30 +1634,33 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1601,6 +1720,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1632,14 +1754,14 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>3</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>4</v>
       </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -1650,12 +1772,15 @@
         <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1715,6 +1840,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1749,27 +1877,30 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
         <v>5</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>3</v>
       </c>
-      <c r="N7" t="n">
-        <v>1</v>
-      </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1829,6 +1960,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1860,30 +1994,33 @@
         <v>2</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>6</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>3</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1917,30 +2054,33 @@
         <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1974,10 +2114,10 @@
         <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1986,18 +2126,21 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>4</v>
       </c>
-      <c r="N11" t="n">
-        <v>1</v>
-      </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2031,11 +2174,11 @@
         <v>1</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>4</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
@@ -2043,18 +2186,21 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2088,11 +2234,11 @@
         <v>4</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>4</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
@@ -2100,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>1</v>
@@ -2109,9 +2255,12 @@
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2145,11 +2294,11 @@
         <v>3</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>4</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
@@ -2160,15 +2309,18 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2208,25 +2360,88 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" t="n">
         <v>3</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
       <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>3</v>
       </c>
-      <c r="O15" t="n">
-        <v>2</v>
-      </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>12</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2240,7 +2455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2291,45 +2506,50 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Wendell Moore Jr.</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Ausar Thompson</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Tobias Harris</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Chaz Lanier</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Daniss Jenkins</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Isaiah Stewart</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Javonte Green</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Bobi Klintman</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Tolu Smith</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Duncan Robinson</t>
         </is>
@@ -2365,23 +2585,23 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>9</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>10</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
@@ -2389,6 +2609,9 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2422,30 +2645,33 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
         <v>8</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2505,6 +2731,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2536,30 +2765,33 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>12</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>8</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>6</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>3</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2619,6 +2851,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2650,30 +2885,33 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
         <v>9</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3</v>
       </c>
       <c r="O7" t="n">
         <v>3</v>
       </c>
       <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
         <v>4</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2733,6 +2971,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2764,30 +3005,33 @@
         <v>1</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>11</v>
       </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>4</v>
       </c>
-      <c r="N9" t="n">
-        <v>2</v>
-      </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2821,30 +3065,33 @@
         <v>1</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>7</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>6</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>4</v>
       </c>
-      <c r="N10" t="n">
-        <v>2</v>
-      </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2878,11 +3125,11 @@
         <v>1</v>
       </c>
       <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>4</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
@@ -2890,18 +3137,21 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>14</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>3</v>
       </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2935,11 +3185,11 @@
         <v>2</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>7</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
@@ -2947,18 +3197,21 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>6</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>4</v>
       </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2992,30 +3245,33 @@
         <v>3</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>6</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>3</v>
       </c>
       <c r="O13" t="n">
+        <v>3</v>
+      </c>
+      <c r="P13" t="n">
         <v>5</v>
       </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
       <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,11 +3305,11 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>5</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
@@ -3064,15 +3320,18 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3112,25 +3371,88 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>3</v>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
         <v>8</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
       <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>11</v>
       </c>
-      <c r="O15" t="n">
-        <v>2</v>
-      </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6</v>
+      </c>
+      <c r="G16" t="n">
+        <v>13</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>4</v>
+      </c>
+      <c r="P16" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>7</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3144,7 +3466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3195,45 +3517,50 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Wendell Moore Jr.</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Ausar Thompson</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Tobias Harris</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Chaz Lanier</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Daniss Jenkins</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Isaiah Stewart</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Javonte Green</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Bobi Klintman</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Tolu Smith</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Duncan Robinson</t>
         </is>
@@ -3272,19 +3599,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -3293,6 +3620,9 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3326,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -3344,12 +3674,15 @@
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3409,6 +3742,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3443,27 +3779,30 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3523,6 +3862,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3557,19 +3899,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -3578,6 +3920,9 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3637,6 +3982,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3668,30 +4016,33 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="n">
         <v>3</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3725,13 +4076,13 @@
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -3740,15 +4091,18 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3794,18 +4148,21 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3851,10 +4208,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -3863,6 +4220,9 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3911,15 +4271,18 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3953,10 +4316,10 @@
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -3968,15 +4331,18 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4016,25 +4382,88 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" t="n">
         <v>4</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -4048,7 +4477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4115,47 +4544,47 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.36363636363636</v>
+        <v>12.33333333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tolu Smith</t>
+          <t>Isaiah Stewart</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>10.66666666666667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Isaiah Stewart</t>
+          <t>Ronald Holland II</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.66666666666667</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ronald Holland II</t>
+          <t>Caris LeVert</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.272727272727273</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Caris LeVert</t>
+          <t>Tolu Smith</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.857142857142857</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="11">
@@ -4165,27 +4594,27 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.833333333333333</v>
+        <v>8.428571428571429</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Javonte Green</t>
+          <t>Paul Reed</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.727272727272728</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Paul Reed</t>
+          <t>Javonte Green</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.444444444444445</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -4195,7 +4624,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.714285714285714</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="15">
@@ -4205,16 +4634,26 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>Wendell Moore Jr.</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>Isaac Jones</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4229,7 +4668,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4272,71 +4711,71 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Daniss Jenkins</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.833333333333333</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Caris LeVert</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.285714285714286</v>
+        <v>2.833333333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ronald Holland II</t>
+          <t>Caris LeVert</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.909090909090909</v>
+        <v>2.625</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Duncan Robinson</t>
+          <t>Ronald Holland II</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.727272727272727</v>
+        <v>1.833333333333333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jalen Duren</t>
+          <t>Duncan Robinson</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.636363636363636</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Isaiah Stewart</t>
+          <t>Jalen Duren</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.555555555555556</v>
+        <v>1.636363636363636</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Daniss Jenkins</t>
+          <t>Isaiah Stewart</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.5</v>
+        <v>1.555555555555556</v>
       </c>
     </row>
     <row r="11">
@@ -4346,57 +4785,67 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.272727272727273</v>
+        <v>1.166666666666667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bobi Klintman</t>
+          <t>Paul Reed</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chaz Lanier</t>
+          <t>Wendell Moore Jr.</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Paul Reed</t>
+          <t>Tolu Smith</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4444444444444444</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Isaac Jones</t>
+          <t>Bobi Klintman</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Tolu Smith</t>
+          <t>Chaz Lanier</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Isaac Jones</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -4410,7 +4859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4473,21 +4922,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cade Cunningham</t>
+          <t>Tolu Smith</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.363636363636363</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tolu Smith</t>
+          <t>Cade Cunningham</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>5.363636363636363</v>
       </c>
     </row>
     <row r="8">
@@ -4497,7 +4946,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.555555555555555</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="9">
@@ -4507,7 +4956,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.545454545454545</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="10">
@@ -4517,27 +4966,27 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.363636363636364</v>
+        <v>3.416666666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Duncan Robinson</t>
+          <t>Bobi Klintman</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.636363636363636</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bobi Klintman</t>
+          <t>Duncan Robinson</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.5</v>
+        <v>2.583333333333333</v>
       </c>
     </row>
     <row r="13">
@@ -4547,7 +4996,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.5</v>
+        <v>1.857142857142857</v>
       </c>
     </row>
     <row r="14">
@@ -4557,7 +5006,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.285714285714286</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="15">
@@ -4567,7 +5016,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="16">
@@ -4578,6 +5027,16 @@
       </c>
       <c r="B16" t="n">
         <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Wendell Moore Jr.</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4591,7 +5050,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4618,7 +5077,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.636363636363636</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -4644,21 +5103,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Caris LeVert</t>
+          <t>Isaiah Stewart</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.285714285714286</v>
+        <v>1.222222222222222</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Isaiah Stewart</t>
+          <t>Caris LeVert</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.222222222222222</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="7">
@@ -4668,7 +5127,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.090909090909091</v>
+        <v>1.083333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -4678,7 +5137,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="9">
@@ -4688,7 +5147,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="10">
@@ -4698,37 +5157,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ausar Thompson</t>
+          <t>Bobi Klintman</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bobi Klintman</t>
+          <t>Paul Reed</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Paul Reed</t>
+          <t>Ausar Thompson</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14">
@@ -4754,11 +5213,319 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>Wendell Moore Jr.</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>Tolu Smith</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>0</v>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Game Time (PST)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Team Points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Game Total Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>111</v>
+      </c>
+      <c r="D2" t="n">
+        <v>115</v>
+      </c>
+      <c r="E2" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>115</v>
+      </c>
+      <c r="D3" t="n">
+        <v>111</v>
+      </c>
+      <c r="E3" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>119</v>
+      </c>
+      <c r="D4" t="n">
+        <v>113</v>
+      </c>
+      <c r="E4" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>95</v>
+      </c>
+      <c r="D5" t="n">
+        <v>116</v>
+      </c>
+      <c r="E5" t="n">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>135</v>
+      </c>
+      <c r="D6" t="n">
+        <v>116</v>
+      </c>
+      <c r="E6" t="n">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>122</v>
+      </c>
+      <c r="D7" t="n">
+        <v>110</v>
+      </c>
+      <c r="E7" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>114</v>
+      </c>
+      <c r="D8" t="n">
+        <v>106</v>
+      </c>
+      <c r="E8" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>114</v>
+      </c>
+      <c r="D9" t="n">
+        <v>103</v>
+      </c>
+      <c r="E9" t="n">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>125</v>
+      </c>
+      <c r="D10" t="n">
+        <v>107</v>
+      </c>
+      <c r="E10" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>111</v>
+      </c>
+      <c r="D11" t="n">
+        <v>108</v>
+      </c>
+      <c r="E11" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>137</v>
+      </c>
+      <c r="D12" t="n">
+        <v>135</v>
+      </c>
+      <c r="E12" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>124</v>
+      </c>
+      <c r="D13" t="n">
+        <v>113</v>
+      </c>
+      <c r="E13" t="n">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
